--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Crs\Spring 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\Spring 2020\Artificial Intelligence\Gradient_Descent\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4031B9-71BA-42B0-96B2-6823327AB572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20580" windowHeight="7860"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,15 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="8">
   <si>
-    <t>I. setosa</t>
-  </si>
-  <si>
-    <t>I. versicolor</t>
-  </si>
-  <si>
-    <t>I. virginica</t>
-  </si>
-  <si>
     <t>Sepal length</t>
   </si>
   <si>
@@ -49,11 +41,20 @@
   <si>
     <t>Species</t>
   </si>
+  <si>
+    <t>Setosa</t>
+  </si>
+  <si>
+    <t>Versicolor</t>
+  </si>
+  <si>
+    <t>Virginica</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,36 +390,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102:E151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -432,10 +433,10 @@
         <v>0.2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -449,10 +450,10 @@
         <v>0.2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4.7</v>
       </c>
@@ -466,7 +467,7 @@
         <v>0.2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -475,7 +476,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -489,10 +490,10 @@
         <v>0.2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -506,10 +507,10 @@
         <v>0.3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5.4</v>
       </c>
@@ -523,10 +524,10 @@
         <v>0.4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -540,10 +541,10 @@
         <v>0.3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -557,10 +558,10 @@
         <v>0.2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -574,10 +575,10 @@
         <v>0.2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -591,10 +592,10 @@
         <v>0.1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>5.4</v>
       </c>
@@ -608,10 +609,10 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>4.8</v>
       </c>
@@ -625,10 +626,10 @@
         <v>0.2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>4.8</v>
       </c>
@@ -642,10 +643,10 @@
         <v>0.1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>4.3</v>
       </c>
@@ -659,10 +660,10 @@
         <v>0.1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>5.8</v>
       </c>
@@ -676,10 +677,10 @@
         <v>0.2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>5.7</v>
       </c>
@@ -693,10 +694,10 @@
         <v>0.4</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>5.4</v>
       </c>
@@ -710,10 +711,10 @@
         <v>0.4</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -727,10 +728,10 @@
         <v>0.3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>5.7</v>
       </c>
@@ -744,10 +745,10 @@
         <v>0.3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -761,10 +762,10 @@
         <v>0.3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>5.4</v>
       </c>
@@ -778,10 +779,10 @@
         <v>0.2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -795,10 +796,10 @@
         <v>0.4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -812,10 +813,10 @@
         <v>0.2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -829,10 +830,10 @@
         <v>0.5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4.8</v>
       </c>
@@ -846,10 +847,10 @@
         <v>0.2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -863,10 +864,10 @@
         <v>0.2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>5</v>
       </c>
@@ -880,10 +881,10 @@
         <v>0.4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>5.2</v>
       </c>
@@ -897,10 +898,10 @@
         <v>0.2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>5.2</v>
       </c>
@@ -914,10 +915,10 @@
         <v>0.2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4.7</v>
       </c>
@@ -931,10 +932,10 @@
         <v>0.2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4.8</v>
       </c>
@@ -948,10 +949,10 @@
         <v>0.2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>5.4</v>
       </c>
@@ -965,10 +966,10 @@
         <v>0.4</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5.2</v>
       </c>
@@ -982,10 +983,10 @@
         <v>0.1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>5.5</v>
       </c>
@@ -999,10 +1000,10 @@
         <v>0.2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -1016,10 +1017,10 @@
         <v>0.2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>5</v>
       </c>
@@ -1033,10 +1034,10 @@
         <v>0.2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>5.5</v>
       </c>
@@ -1050,10 +1051,10 @@
         <v>0.2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -1067,10 +1068,10 @@
         <v>0.1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -1084,10 +1085,10 @@
         <v>0.2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -1101,10 +1102,10 @@
         <v>0.2</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>5</v>
       </c>
@@ -1118,10 +1119,10 @@
         <v>0.3</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>4.5</v>
       </c>
@@ -1135,10 +1136,10 @@
         <v>0.3</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -1152,10 +1153,10 @@
         <v>0.2</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>5</v>
       </c>
@@ -1169,10 +1170,10 @@
         <v>0.6</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -1186,10 +1187,10 @@
         <v>0.4</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>4.8</v>
       </c>
@@ -1203,10 +1204,10 @@
         <v>0.3</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -1220,10 +1221,10 @@
         <v>0.2</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -1237,10 +1238,10 @@
         <v>0.2</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>5.3</v>
       </c>
@@ -1254,10 +1255,10 @@
         <v>0.2</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>5</v>
       </c>
@@ -1271,10 +1272,10 @@
         <v>0.2</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>7</v>
       </c>
@@ -1288,10 +1289,10 @@
         <v>1.4</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>6.4</v>
       </c>
@@ -1305,10 +1306,10 @@
         <v>1.5</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>6.9</v>
       </c>
@@ -1322,10 +1323,10 @@
         <v>1.5</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>5.5</v>
       </c>
@@ -1339,10 +1340,10 @@
         <v>1.3</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>6.5</v>
       </c>
@@ -1356,10 +1357,10 @@
         <v>1.5</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>5.7</v>
       </c>
@@ -1373,10 +1374,10 @@
         <v>1.3</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>6.3</v>
       </c>
@@ -1390,10 +1391,10 @@
         <v>1.6</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -1407,10 +1408,10 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>6.6</v>
       </c>
@@ -1424,10 +1425,10 @@
         <v>1.3</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>5.2</v>
       </c>
@@ -1441,10 +1442,10 @@
         <v>1.4</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>5</v>
       </c>
@@ -1458,10 +1459,10 @@
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>5.9</v>
       </c>
@@ -1475,10 +1476,10 @@
         <v>1.5</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>6</v>
       </c>
@@ -1492,10 +1493,10 @@
         <v>1</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>6.1</v>
       </c>
@@ -1509,10 +1510,10 @@
         <v>1.4</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>5.6</v>
       </c>
@@ -1526,10 +1527,10 @@
         <v>1.3</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>6.7</v>
       </c>
@@ -1543,10 +1544,10 @@
         <v>1.4</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>5.6</v>
       </c>
@@ -1560,10 +1561,10 @@
         <v>1.5</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>5.8</v>
       </c>
@@ -1577,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>6.2</v>
       </c>
@@ -1594,10 +1595,10 @@
         <v>1.5</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>5.6</v>
       </c>
@@ -1611,10 +1612,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>5.9</v>
       </c>
@@ -1628,10 +1629,10 @@
         <v>1.8</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>6.1</v>
       </c>
@@ -1645,10 +1646,10 @@
         <v>1.3</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>6.3</v>
       </c>
@@ -1662,10 +1663,10 @@
         <v>1.5</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>6.1</v>
       </c>
@@ -1679,10 +1680,10 @@
         <v>1.2</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>6.4</v>
       </c>
@@ -1696,10 +1697,10 @@
         <v>1.3</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>6.6</v>
       </c>
@@ -1713,10 +1714,10 @@
         <v>1.4</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>6.8</v>
       </c>
@@ -1730,10 +1731,10 @@
         <v>1.4</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>6.7</v>
       </c>
@@ -1747,10 +1748,10 @@
         <v>1.7</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>6</v>
       </c>
@@ -1764,10 +1765,10 @@
         <v>1.5</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>5.7</v>
       </c>
@@ -1781,10 +1782,10 @@
         <v>1</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>5.5</v>
       </c>
@@ -1798,10 +1799,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>5.5</v>
       </c>
@@ -1815,10 +1816,10 @@
         <v>1</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>5.8</v>
       </c>
@@ -1832,10 +1833,10 @@
         <v>1.2</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>6</v>
       </c>
@@ -1849,10 +1850,10 @@
         <v>1.6</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>5.4</v>
       </c>
@@ -1866,10 +1867,10 @@
         <v>1.5</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>6</v>
       </c>
@@ -1883,10 +1884,10 @@
         <v>1.6</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>6.7</v>
       </c>
@@ -1900,10 +1901,10 @@
         <v>1.5</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>6.3</v>
       </c>
@@ -1917,10 +1918,10 @@
         <v>1.3</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>5.6</v>
       </c>
@@ -1934,10 +1935,10 @@
         <v>1.3</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>5.5</v>
       </c>
@@ -1951,10 +1952,10 @@
         <v>1.3</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>5.5</v>
       </c>
@@ -1968,10 +1969,10 @@
         <v>1.2</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>6.1</v>
       </c>
@@ -1985,10 +1986,10 @@
         <v>1.4</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>5.8</v>
       </c>
@@ -2002,10 +2003,10 @@
         <v>1.2</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>5</v>
       </c>
@@ -2019,10 +2020,10 @@
         <v>1</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>5.6</v>
       </c>
@@ -2036,10 +2037,10 @@
         <v>1.3</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>5.7</v>
       </c>
@@ -2053,10 +2054,10 @@
         <v>1.2</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>5.7</v>
       </c>
@@ -2070,10 +2071,10 @@
         <v>1.3</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>6.2</v>
       </c>
@@ -2087,10 +2088,10 @@
         <v>1.3</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -2104,10 +2105,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>5.7</v>
       </c>
@@ -2121,10 +2122,10 @@
         <v>1.3</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>6.3</v>
       </c>
@@ -2138,10 +2139,10 @@
         <v>2.5</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>5.8</v>
       </c>
@@ -2155,10 +2156,10 @@
         <v>1.9</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>7.1</v>
       </c>
@@ -2172,10 +2173,10 @@
         <v>2.1</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>6.3</v>
       </c>
@@ -2189,10 +2190,10 @@
         <v>1.8</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>6.5</v>
       </c>
@@ -2206,10 +2207,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>7.6</v>
       </c>
@@ -2223,10 +2224,10 @@
         <v>2.1</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -2240,10 +2241,10 @@
         <v>1.7</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>7.3</v>
       </c>
@@ -2257,10 +2258,10 @@
         <v>1.8</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>6.7</v>
       </c>
@@ -2274,10 +2275,10 @@
         <v>1.8</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>7.2</v>
       </c>
@@ -2291,10 +2292,10 @@
         <v>2.5</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>6.5</v>
       </c>
@@ -2308,10 +2309,10 @@
         <v>2</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>6.4</v>
       </c>
@@ -2325,10 +2326,10 @@
         <v>1.9</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>6.8</v>
       </c>
@@ -2342,10 +2343,10 @@
         <v>2.1</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>5.7</v>
       </c>
@@ -2359,10 +2360,10 @@
         <v>2</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>5.8</v>
       </c>
@@ -2376,10 +2377,10 @@
         <v>2.4</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>6.4</v>
       </c>
@@ -2393,10 +2394,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>6.5</v>
       </c>
@@ -2410,10 +2411,10 @@
         <v>1.8</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>7.7</v>
       </c>
@@ -2427,10 +2428,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>7.7</v>
       </c>
@@ -2444,10 +2445,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>6</v>
       </c>
@@ -2461,10 +2462,10 @@
         <v>1.5</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>6.9</v>
       </c>
@@ -2478,10 +2479,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>5.6</v>
       </c>
@@ -2495,10 +2496,10 @@
         <v>2</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>7.7</v>
       </c>
@@ -2512,10 +2513,10 @@
         <v>2</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>6.3</v>
       </c>
@@ -2529,10 +2530,10 @@
         <v>1.8</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>6.7</v>
       </c>
@@ -2546,10 +2547,10 @@
         <v>2.1</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>7.2</v>
       </c>
@@ -2563,10 +2564,10 @@
         <v>1.8</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>6.2</v>
       </c>
@@ -2580,10 +2581,10 @@
         <v>1.8</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>6.1</v>
       </c>
@@ -2597,10 +2598,10 @@
         <v>1.8</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>6.4</v>
       </c>
@@ -2614,10 +2615,10 @@
         <v>2.1</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>7.2</v>
       </c>
@@ -2631,10 +2632,10 @@
         <v>1.6</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>7.4</v>
       </c>
@@ -2648,10 +2649,10 @@
         <v>1.9</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>7.9</v>
       </c>
@@ -2665,10 +2666,10 @@
         <v>2</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>6.4</v>
       </c>
@@ -2682,10 +2683,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>6.3</v>
       </c>
@@ -2699,10 +2700,10 @@
         <v>1.5</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>6.1</v>
       </c>
@@ -2716,10 +2717,10 @@
         <v>1.4</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>7.7</v>
       </c>
@@ -2733,10 +2734,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>6.3</v>
       </c>
@@ -2750,10 +2751,10 @@
         <v>2.4</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>6.4</v>
       </c>
@@ -2767,10 +2768,10 @@
         <v>1.8</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>6</v>
       </c>
@@ -2784,10 +2785,10 @@
         <v>1.8</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>6.9</v>
       </c>
@@ -2801,10 +2802,10 @@
         <v>2.1</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>6.7</v>
       </c>
@@ -2818,10 +2819,10 @@
         <v>2.4</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>6.9</v>
       </c>
@@ -2835,10 +2836,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>5.8</v>
       </c>
@@ -2852,10 +2853,10 @@
         <v>1.9</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>6.8</v>
       </c>
@@ -2869,10 +2870,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>6.7</v>
       </c>
@@ -2886,10 +2887,10 @@
         <v>2.5</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>6.7</v>
       </c>
@@ -2903,10 +2904,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>6.3</v>
       </c>
@@ -2920,10 +2921,10 @@
         <v>1.9</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>6.5</v>
       </c>
@@ -2937,10 +2938,10 @@
         <v>2</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>6.2</v>
       </c>
@@ -2954,10 +2955,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>5.9</v>
       </c>
@@ -2971,10 +2972,10 @@
         <v>1.8</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
